--- a/medicine/Mort/Cimetière_de_la_Présentation/Cimetière_de_la_Présentation.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Présentation/Cimetière_de_la_Présentation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Pr%C3%A9sentation</t>
+          <t>Cimetière_de_la_Présentation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la Présentation de la Vierge (Vvedenskoïe kladbichtche) est un cimetière de Moscou, réservé au début de sa fondation aux chrétiens non-orthodoxes. Il est aussi appelé le cimetière allemand. Il se situe dans le quartier de Lefortovo.
 Ce cimetière de 20 hectares a été nationalisé en 1918 et accueille depuis les dépouilles de défunts d'autres religions, majoritairement orthodoxes, ou athées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Pr%C3%A9sentation</t>
+          <t>Cimetière_de_la_Présentation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est fondé après un oukaze impérial de 1771 interdisant, comme d'ailleurs ce sera le cas en Europe, les inhumations dans les églises et près des églises, à cause des épidémies. Le cimetière se trouve alors à la limite de la ville, près de la prison de Lefortovo. Des communautés importantes d'Allemands, luthériens ou catholiques y demeuraient. On remarque aussi dans le cimetière un certain nombre de chapelles funéraires catholiques, appartenant à des familles fortunées originaires de Pologne et des tombes de personnes venues d'Italie et des pays du Nord. Les tombes orthodoxes viendront plus tard après 1918.
 Le cimetière accueille aussi tout au long du XIXe siècle des tombes de soldats étrangers, les Français de la Grande Armée de 1812, dont un obélisque érigé en 1889 par la République française rappelle le souvenir, des Autrichiens, des Allemands, des Baltes ayant combattu dans l'armée russe, ainsi que des soldats de l'Empire d'autres confessions (Polonais, Germano-baltes, etc.) On remarque aussi les tombes de prisonniers allemands et autrichiens de la Première Guerre mondiale.
